--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="492">
   <si>
     <t>TestCases</t>
   </si>
@@ -1135,6 +1135,390 @@
   </si>
   <si>
     <t>IDEP174653986875MZIG</t>
+  </si>
+  <si>
+    <t>6933451630</t>
+  </si>
+  <si>
+    <t>Kanika</t>
+  </si>
+  <si>
+    <t>WahidPersaud30534@example.net</t>
+  </si>
+  <si>
+    <t>1970-12-23</t>
+  </si>
+  <si>
+    <t>790211284385330</t>
+  </si>
+  <si>
+    <t>51ba6bb2e6361bd0</t>
+  </si>
+  <si>
+    <t>596694390061513</t>
+  </si>
+  <si>
+    <t>7935173393</t>
+  </si>
+  <si>
+    <t>Basanti</t>
+  </si>
+  <si>
+    <t>MustafaTara34717@example.net</t>
+  </si>
+  <si>
+    <t>1976-07-17</t>
+  </si>
+  <si>
+    <t>166196659711796</t>
+  </si>
+  <si>
+    <t>f7fa8abb8f65817f</t>
+  </si>
+  <si>
+    <t>650580116214119</t>
+  </si>
+  <si>
+    <t>7183186518</t>
+  </si>
+  <si>
+    <t>Kajol</t>
+  </si>
+  <si>
+    <t>TanaySethi55436@example.net</t>
+  </si>
+  <si>
+    <t>1977-03-23</t>
+  </si>
+  <si>
+    <t>046761662274383</t>
+  </si>
+  <si>
+    <t>48043f60a9ae6faa</t>
+  </si>
+  <si>
+    <t>746815341042190</t>
+  </si>
+  <si>
+    <t>IDEP6471332665252DR6</t>
+  </si>
+  <si>
+    <t>7035331728</t>
+  </si>
+  <si>
+    <t>Tejaswani</t>
+  </si>
+  <si>
+    <t>PranabOak92082@example.net</t>
+  </si>
+  <si>
+    <t>1978-06-25</t>
+  </si>
+  <si>
+    <t>858188955974338</t>
+  </si>
+  <si>
+    <t>5af1aa58c7d90efe</t>
+  </si>
+  <si>
+    <t>175074773469394</t>
+  </si>
+  <si>
+    <t>IDEP4671381148854IXN</t>
+  </si>
+  <si>
+    <t>6648599031</t>
+  </si>
+  <si>
+    <t>Akanksha</t>
+  </si>
+  <si>
+    <t>UdayDad67157@example.net</t>
+  </si>
+  <si>
+    <t>1975-02-03</t>
+  </si>
+  <si>
+    <t>426745097275974</t>
+  </si>
+  <si>
+    <t>965d604b72d39721</t>
+  </si>
+  <si>
+    <t>914081665301920</t>
+  </si>
+  <si>
+    <t>6421916054</t>
+  </si>
+  <si>
+    <t>Afreen</t>
+  </si>
+  <si>
+    <t>RajRampersaud86351@example.net</t>
+  </si>
+  <si>
+    <t>1976-09-21</t>
+  </si>
+  <si>
+    <t>846585459454060</t>
+  </si>
+  <si>
+    <t>1b03d250071eb833</t>
+  </si>
+  <si>
+    <t>964449644760806</t>
+  </si>
+  <si>
+    <t>7461320138</t>
+  </si>
+  <si>
+    <t>Rohini</t>
+  </si>
+  <si>
+    <t>ArjunChowdhury89837@example.net</t>
+  </si>
+  <si>
+    <t>1971-02-15</t>
+  </si>
+  <si>
+    <t>599080344607691</t>
+  </si>
+  <si>
+    <t>b4b00d5f17197722</t>
+  </si>
+  <si>
+    <t>232718141104346</t>
+  </si>
+  <si>
+    <t>IDEP147643483768SMTC</t>
+  </si>
+  <si>
+    <t>9001734269</t>
+  </si>
+  <si>
+    <t>Aruna</t>
+  </si>
+  <si>
+    <t>YaduHanda11003@example.net</t>
+  </si>
+  <si>
+    <t>1976-05-06</t>
+  </si>
+  <si>
+    <t>661584070160471</t>
+  </si>
+  <si>
+    <t>8ba6548b792de598</t>
+  </si>
+  <si>
+    <t>262464557174555</t>
+  </si>
+  <si>
+    <t>IDEP1764434354289L8X</t>
+  </si>
+  <si>
+    <t>9334267553</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>FarazDhawan32354@example.net</t>
+  </si>
+  <si>
+    <t>1989-05-21</t>
+  </si>
+  <si>
+    <t>555971459178050</t>
+  </si>
+  <si>
+    <t>7679934be9403c09</t>
+  </si>
+  <si>
+    <t>663574358529255</t>
+  </si>
+  <si>
+    <t>IDEP761443698451AGYM</t>
+  </si>
+  <si>
+    <t>7860508608</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>MarloChar75567@example.net</t>
+  </si>
+  <si>
+    <t>1990-06-20</t>
+  </si>
+  <si>
+    <t>140667666033433</t>
+  </si>
+  <si>
+    <t>b14b32d3c9c074b3</t>
+  </si>
+  <si>
+    <t>719009627607206</t>
+  </si>
+  <si>
+    <t>IDEP1647442975259WH3</t>
+  </si>
+  <si>
+    <t>7534031988</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>BijoyBedi90199@example.net</t>
+  </si>
+  <si>
+    <t>1975-11-20</t>
+  </si>
+  <si>
+    <t>647599414190157</t>
+  </si>
+  <si>
+    <t>012c933153b0230c</t>
+  </si>
+  <si>
+    <t>600222904157793</t>
+  </si>
+  <si>
+    <t>IDEP7641458568865Z9E</t>
+  </si>
+  <si>
+    <t>8796547674</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>BinodRana94503@example.net</t>
+  </si>
+  <si>
+    <t>1973-08-18</t>
+  </si>
+  <si>
+    <t>474627840401662</t>
+  </si>
+  <si>
+    <t>dcc5c340fbfc6eb4</t>
+  </si>
+  <si>
+    <t>125694568968309</t>
+  </si>
+  <si>
+    <t>7723834717</t>
+  </si>
+  <si>
+    <t>Pinky</t>
+  </si>
+  <si>
+    <t>AmritVarughese74907@example.net</t>
+  </si>
+  <si>
+    <t>1971-09-15</t>
+  </si>
+  <si>
+    <t>945522535268230</t>
+  </si>
+  <si>
+    <t>481a6913d16674b9</t>
+  </si>
+  <si>
+    <t>660760634292387</t>
+  </si>
+  <si>
+    <t>9156419172</t>
+  </si>
+  <si>
+    <t>AkhilLoke49820@example.net</t>
+  </si>
+  <si>
+    <t>1974-05-03</t>
+  </si>
+  <si>
+    <t>491812117721666</t>
+  </si>
+  <si>
+    <t>79588edc400c5477</t>
+  </si>
+  <si>
+    <t>457367458109890</t>
+  </si>
+  <si>
+    <t>IDEP4761191886968H3K</t>
+  </si>
+  <si>
+    <t>6032363809</t>
+  </si>
+  <si>
+    <t>Kamini</t>
+  </si>
+  <si>
+    <t>NawabRaju80287@example.net</t>
+  </si>
+  <si>
+    <t>1988-06-06</t>
+  </si>
+  <si>
+    <t>354961762009061</t>
+  </si>
+  <si>
+    <t>bb89f5a39178c5a9</t>
+  </si>
+  <si>
+    <t>285977369195180</t>
+  </si>
+  <si>
+    <t>IDEP741623381868ALJR</t>
+  </si>
+  <si>
+    <t>8955835919</t>
+  </si>
+  <si>
+    <t>Bhanupriya</t>
+  </si>
+  <si>
+    <t>ZaadPillay97791@example.net</t>
+  </si>
+  <si>
+    <t>1985-03-27</t>
+  </si>
+  <si>
+    <t>500509670051510</t>
+  </si>
+  <si>
+    <t>6eb18ab6eae66fe3</t>
+  </si>
+  <si>
+    <t>723944043983282</t>
+  </si>
+  <si>
+    <t>IDEP675159648848DO56</t>
+  </si>
+  <si>
+    <t>6046395525</t>
+  </si>
+  <si>
+    <t>BirenBen95682@example.net</t>
+  </si>
+  <si>
+    <t>1985-07-26</t>
+  </si>
+  <si>
+    <t>803564432624777</t>
+  </si>
+  <si>
+    <t>f77e790cb736ea2c</t>
+  </si>
+  <si>
+    <t>177378611387561</t>
+  </si>
+  <si>
+    <t>IDEP567164526537AIGJ</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +2014,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1750,7 +2134,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2199,16 +2583,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>489</v>
       </c>
       <c r="C2" t="s">
-        <v>362</v>
+        <v>490</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>488</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2427,13 +2811,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>359</v>
+        <v>487</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2980,10 +3364,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>486</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -2995,7 +3379,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>360</v>
+        <v>488</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3004,10 +3388,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="M2" t="n">
-        <v>4221624.0</v>
+        <v>4224454.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3163,7 +3547,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3180,7 +3564,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3197,7 +3581,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3214,7 +3598,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3231,7 +3615,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3317,7 +3701,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>488</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3561,7 +3945,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>360</v>
+        <v>488</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -3776,7 +4160,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -3859,7 +4243,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4157,7 +4541,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4177,7 +4561,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4197,7 +4581,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4217,7 +4601,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4237,7 +4621,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4257,7 +4641,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4277,7 +4661,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="500">
   <si>
     <t>TestCases</t>
   </si>
@@ -1519,6 +1519,30 @@
   </si>
   <si>
     <t>IDEP567164526537AIGJ</t>
+  </si>
+  <si>
+    <t>7864500774</t>
+  </si>
+  <si>
+    <t>Ruchi</t>
+  </si>
+  <si>
+    <t>SomnathNarine33820@example.net</t>
+  </si>
+  <si>
+    <t>1990-06-26</t>
+  </si>
+  <si>
+    <t>308876052148519</t>
+  </si>
+  <si>
+    <t>f591c4272e4bf2ca</t>
+  </si>
+  <si>
+    <t>739554166463145</t>
+  </si>
+  <si>
+    <t>IDEP751678189346YWMJ</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2134,7 +2158,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2583,16 +2607,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C2" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2811,13 +2835,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>493</v>
       </c>
       <c r="E2" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F2" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3364,10 +3388,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="E2" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3379,7 +3403,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3388,10 +3412,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="M2" t="n">
-        <v>4224454.0</v>
+        <v>4224666.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3547,7 +3571,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3564,7 +3588,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3581,7 +3605,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3598,7 +3622,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3615,7 +3639,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3701,7 +3725,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3945,7 +3969,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4160,7 +4184,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>493</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4243,7 +4267,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4541,7 +4565,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4561,7 +4585,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4581,7 +4605,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4601,7 +4625,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4621,7 +4645,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4641,7 +4665,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4661,7 +4685,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="508">
   <si>
     <t>TestCases</t>
   </si>
@@ -1543,6 +1543,30 @@
   </si>
   <si>
     <t>IDEP751678189346YWMJ</t>
+  </si>
+  <si>
+    <t>9011366157</t>
+  </si>
+  <si>
+    <t>Bhaagyasree</t>
+  </si>
+  <si>
+    <t>KailashBen93467@example.net</t>
+  </si>
+  <si>
+    <t>1977-12-15</t>
+  </si>
+  <si>
+    <t>028269703738319</t>
+  </si>
+  <si>
+    <t>7bd2218339b8d980</t>
+  </si>
+  <si>
+    <t>065153219845467</t>
+  </si>
+  <si>
+    <t>IDEP751698291543OTB2</t>
   </si>
 </sst>
 </file>
@@ -2038,7 +2062,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2158,7 +2182,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2607,16 +2631,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C2" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2835,13 +2859,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="E2" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="F2" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3388,10 +3412,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3403,7 +3427,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3412,10 +3436,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="M2" t="n">
-        <v>4224666.0</v>
+        <v>4224876.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3571,7 +3595,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3588,7 +3612,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3605,7 +3629,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3622,7 +3646,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3639,7 +3663,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3725,7 +3749,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3969,7 +3993,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4184,7 +4208,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4267,7 +4291,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4565,7 +4589,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4585,7 +4609,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4605,7 +4629,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4625,7 +4649,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4645,7 +4669,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4665,7 +4689,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4685,7 +4709,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="530">
   <si>
     <t>TestCases</t>
   </si>
@@ -1567,6 +1567,72 @@
   </si>
   <si>
     <t>IDEP751698291543OTB2</t>
+  </si>
+  <si>
+    <t>8266762876</t>
+  </si>
+  <si>
+    <t>Rimi</t>
+  </si>
+  <si>
+    <t>ArvindShetty46580@example.net</t>
+  </si>
+  <si>
+    <t>1973-08-21</t>
+  </si>
+  <si>
+    <t>418004393728058</t>
+  </si>
+  <si>
+    <t>5afee6193e0b0717</t>
+  </si>
+  <si>
+    <t>081974743309633</t>
+  </si>
+  <si>
+    <t>8822704472</t>
+  </si>
+  <si>
+    <t>Radhika</t>
+  </si>
+  <si>
+    <t>KrishnaKunda16435@example.net</t>
+  </si>
+  <si>
+    <t>1987-11-03</t>
+  </si>
+  <si>
+    <t>609162190111172</t>
+  </si>
+  <si>
+    <t>d7bb8b0f160d14e4</t>
+  </si>
+  <si>
+    <t>005470332740760</t>
+  </si>
+  <si>
+    <t>9521900146</t>
+  </si>
+  <si>
+    <t>Anshu</t>
+  </si>
+  <si>
+    <t>TaahidSaran46726@example.net</t>
+  </si>
+  <si>
+    <t>1983-08-14</t>
+  </si>
+  <si>
+    <t>465802393736241</t>
+  </si>
+  <si>
+    <t>5b653f74b464b5a9</t>
+  </si>
+  <si>
+    <t>767432638122422</t>
+  </si>
+  <si>
+    <t>IDEP671543436599UMXH</t>
   </si>
 </sst>
 </file>
@@ -2062,7 +2128,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2182,7 +2248,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2631,16 +2697,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="C2" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2859,13 +2925,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="E2" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F2" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3412,10 +3478,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="E2" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3427,7 +3493,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3436,10 +3502,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="M2" t="n">
-        <v>4224876.0</v>
+        <v>4225058.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3595,7 +3661,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3612,7 +3678,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3629,7 +3695,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3646,7 +3712,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3663,7 +3729,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3749,7 +3815,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3993,7 +4059,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4208,7 +4274,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4291,7 +4357,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4589,7 +4655,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4609,7 +4675,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4629,7 +4695,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4649,7 +4715,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4669,7 +4735,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4689,7 +4755,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4709,7 +4775,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="554">
   <si>
     <t>TestCases</t>
   </si>
@@ -1633,6 +1633,78 @@
   </si>
   <si>
     <t>IDEP671543436599UMXH</t>
+  </si>
+  <si>
+    <t>9297428275</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>HabibRana21451@example.net</t>
+  </si>
+  <si>
+    <t>1984-03-31</t>
+  </si>
+  <si>
+    <t>529452042431093</t>
+  </si>
+  <si>
+    <t>593bb2b1cded9091</t>
+  </si>
+  <si>
+    <t>510347063642647</t>
+  </si>
+  <si>
+    <t>IDEP561746658829M4SV</t>
+  </si>
+  <si>
+    <t>8052307123</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>LabeenDyal85728@example.net</t>
+  </si>
+  <si>
+    <t>1983-07-07</t>
+  </si>
+  <si>
+    <t>531287183470930</t>
+  </si>
+  <si>
+    <t>5571ff24f923c474</t>
+  </si>
+  <si>
+    <t>080361862904371</t>
+  </si>
+  <si>
+    <t>IDEP751647717474GFH2</t>
+  </si>
+  <si>
+    <t>7323372760</t>
+  </si>
+  <si>
+    <t>Kunti</t>
+  </si>
+  <si>
+    <t>DineshRana97550@example.net</t>
+  </si>
+  <si>
+    <t>1994-07-05</t>
+  </si>
+  <si>
+    <t>940081135377334</t>
+  </si>
+  <si>
+    <t>a1bbcde04efb47ac</t>
+  </si>
+  <si>
+    <t>215171185027646</t>
+  </si>
+  <si>
+    <t>IDEP751648588471UJVQ</t>
   </si>
 </sst>
 </file>
@@ -2128,7 +2200,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2248,7 +2320,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2697,16 +2769,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="C2" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2925,13 +2997,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="E2" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="F2" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3478,10 +3550,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="E2" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3493,7 +3565,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3502,10 +3574,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="M2" t="n">
-        <v>4225058.0</v>
+        <v>4225183.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3661,7 +3733,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3678,7 +3750,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3695,7 +3767,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3712,7 +3784,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3729,7 +3801,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3815,7 +3887,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4059,7 +4131,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4274,7 +4346,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4357,7 +4429,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4655,7 +4727,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4675,7 +4747,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4695,7 +4767,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4715,7 +4787,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4735,7 +4807,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4755,7 +4827,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4775,7 +4847,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="592">
   <si>
     <t>TestCases</t>
   </si>
@@ -1705,6 +1705,120 @@
   </si>
   <si>
     <t>IDEP751648588471UJVQ</t>
+  </si>
+  <si>
+    <t>8818306986</t>
+  </si>
+  <si>
+    <t>Padama</t>
+  </si>
+  <si>
+    <t>AjayDash23826@example.net</t>
+  </si>
+  <si>
+    <t>1995-08-25</t>
+  </si>
+  <si>
+    <t>946694059038502</t>
+  </si>
+  <si>
+    <t>2eb2c51d403f7bfe</t>
+  </si>
+  <si>
+    <t>768653473568820</t>
+  </si>
+  <si>
+    <t>IDEP571668688394DT8F</t>
+  </si>
+  <si>
+    <t>7983531888</t>
+  </si>
+  <si>
+    <t>FerozShah45955@example.net</t>
+  </si>
+  <si>
+    <t>1979-01-16</t>
+  </si>
+  <si>
+    <t>886749662456079</t>
+  </si>
+  <si>
+    <t>5839663577f9dab2</t>
+  </si>
+  <si>
+    <t>729557652655555</t>
+  </si>
+  <si>
+    <t>IDEP517662852312JTOY</t>
+  </si>
+  <si>
+    <t>8363455707</t>
+  </si>
+  <si>
+    <t>Seema</t>
+  </si>
+  <si>
+    <t>ManpreetBoase41266@example.net</t>
+  </si>
+  <si>
+    <t>1979-02-07</t>
+  </si>
+  <si>
+    <t>308065989583960</t>
+  </si>
+  <si>
+    <t>b04b87830a67bc9d</t>
+  </si>
+  <si>
+    <t>401812183936528</t>
+  </si>
+  <si>
+    <t>IDEP7156628842452LJ5</t>
+  </si>
+  <si>
+    <t>9673877729</t>
+  </si>
+  <si>
+    <t>EddieKarpe33737@example.net</t>
+  </si>
+  <si>
+    <t>1973-08-03</t>
+  </si>
+  <si>
+    <t>434642676482362</t>
+  </si>
+  <si>
+    <t>904d4dbab2b25d8a</t>
+  </si>
+  <si>
+    <t>596738355336137</t>
+  </si>
+  <si>
+    <t>IDEP765163276946GZHY</t>
+  </si>
+  <si>
+    <t>8196271623</t>
+  </si>
+  <si>
+    <t>Nilam</t>
+  </si>
+  <si>
+    <t>FaisalChoudhry21307@example.net</t>
+  </si>
+  <si>
+    <t>1980-03-25</t>
+  </si>
+  <si>
+    <t>835853364403363</t>
+  </si>
+  <si>
+    <t>93541273a3b26b95</t>
+  </si>
+  <si>
+    <t>815214942437270</t>
+  </si>
+  <si>
+    <t>IDEP561764489769JP9B</t>
   </si>
 </sst>
 </file>
@@ -2200,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2320,7 +2434,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2769,16 +2883,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="C2" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2997,13 +3111,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>547</v>
+        <v>585</v>
       </c>
       <c r="E2" t="s">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="F2" t="s">
-        <v>549</v>
+        <v>587</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3550,10 +3664,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="E2" t="s">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3565,7 +3679,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3574,10 +3688,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="M2" t="n">
-        <v>4225183.0</v>
+        <v>4225420.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3733,7 +3847,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3750,7 +3864,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3767,7 +3881,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3784,7 +3898,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3801,7 +3915,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3887,7 +4001,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4131,7 +4245,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4346,7 +4460,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>547</v>
+        <v>585</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4429,7 +4543,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4727,7 +4841,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4747,7 +4861,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4767,7 +4881,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4787,7 +4901,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4807,7 +4921,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4827,7 +4941,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4847,7 +4961,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="702">
   <si>
     <t>TestCases</t>
   </si>
@@ -1819,6 +1819,336 @@
   </si>
   <si>
     <t>IDEP561764489769JP9B</t>
+  </si>
+  <si>
+    <t>8848075859</t>
+  </si>
+  <si>
+    <t>Neela</t>
+  </si>
+  <si>
+    <t>VenkatMohan78996@example.net</t>
+  </si>
+  <si>
+    <t>1993-02-17</t>
+  </si>
+  <si>
+    <t>258342946975963</t>
+  </si>
+  <si>
+    <t>644dc8c135b77e99</t>
+  </si>
+  <si>
+    <t>872612075123551</t>
+  </si>
+  <si>
+    <t>8266922975</t>
+  </si>
+  <si>
+    <t>Indrani</t>
+  </si>
+  <si>
+    <t>MukulManda29508@example.net</t>
+  </si>
+  <si>
+    <t>1976-12-09</t>
+  </si>
+  <si>
+    <t>876713434976394</t>
+  </si>
+  <si>
+    <t>3aafe62000fe0c90</t>
+  </si>
+  <si>
+    <t>122393475794089</t>
+  </si>
+  <si>
+    <t>9345986527</t>
+  </si>
+  <si>
+    <t>LabeenSabharwal25152@example.net</t>
+  </si>
+  <si>
+    <t>1971-04-10</t>
+  </si>
+  <si>
+    <t>619228824478655</t>
+  </si>
+  <si>
+    <t>4eaf3fa5faa9f37e</t>
+  </si>
+  <si>
+    <t>098200132061911</t>
+  </si>
+  <si>
+    <t>8362923404</t>
+  </si>
+  <si>
+    <t>Hema</t>
+  </si>
+  <si>
+    <t>DarpanKhurana27322@example.net</t>
+  </si>
+  <si>
+    <t>1994-06-05</t>
+  </si>
+  <si>
+    <t>655507751712342</t>
+  </si>
+  <si>
+    <t>a60f9f0fa96bec71</t>
+  </si>
+  <si>
+    <t>803272073032108</t>
+  </si>
+  <si>
+    <t>8723468971</t>
+  </si>
+  <si>
+    <t>Nutan</t>
+  </si>
+  <si>
+    <t>PrabhatDass30793@example.net</t>
+  </si>
+  <si>
+    <t>1993-09-15</t>
+  </si>
+  <si>
+    <t>757851625385977</t>
+  </si>
+  <si>
+    <t>a90aba358ee497ff</t>
+  </si>
+  <si>
+    <t>644380475019103</t>
+  </si>
+  <si>
+    <t>6474131340</t>
+  </si>
+  <si>
+    <t>BholaBajaj24261@example.net</t>
+  </si>
+  <si>
+    <t>1976-01-14</t>
+  </si>
+  <si>
+    <t>126356816995182</t>
+  </si>
+  <si>
+    <t>e9095c153944ddd0</t>
+  </si>
+  <si>
+    <t>587687004664582</t>
+  </si>
+  <si>
+    <t>6974927567</t>
+  </si>
+  <si>
+    <t>Kalpana</t>
+  </si>
+  <si>
+    <t>WahidGhosh77332@example.net</t>
+  </si>
+  <si>
+    <t>1994-05-09</t>
+  </si>
+  <si>
+    <t>669744667194547</t>
+  </si>
+  <si>
+    <t>641d087096c28f67</t>
+  </si>
+  <si>
+    <t>882302570714678</t>
+  </si>
+  <si>
+    <t>IDEP765158889856UJCF</t>
+  </si>
+  <si>
+    <t>7268087225</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>AmirKhan47195@example.net</t>
+  </si>
+  <si>
+    <t>1982-05-04</t>
+  </si>
+  <si>
+    <t>419263859517137</t>
+  </si>
+  <si>
+    <t>7e4c1d0e35593c63</t>
+  </si>
+  <si>
+    <t>989100973961371</t>
+  </si>
+  <si>
+    <t>IDEP567151422318S2EJ</t>
+  </si>
+  <si>
+    <t>9043568451</t>
+  </si>
+  <si>
+    <t>Preshita</t>
+  </si>
+  <si>
+    <t>HetanChaudry57379@example.net</t>
+  </si>
+  <si>
+    <t>1994-08-22</t>
+  </si>
+  <si>
+    <t>852791499370180</t>
+  </si>
+  <si>
+    <t>12d73a68f316328b</t>
+  </si>
+  <si>
+    <t>712900473828168</t>
+  </si>
+  <si>
+    <t>IDEP167516736248NCV5</t>
+  </si>
+  <si>
+    <t>7013061578</t>
+  </si>
+  <si>
+    <t>Kasturi</t>
+  </si>
+  <si>
+    <t>VickyBajwa14511@example.net</t>
+  </si>
+  <si>
+    <t>1973-02-22</t>
+  </si>
+  <si>
+    <t>278213960294274</t>
+  </si>
+  <si>
+    <t>1b6303efa19c2332</t>
+  </si>
+  <si>
+    <t>661514912619103</t>
+  </si>
+  <si>
+    <t>IDEP751618295752MT2Q</t>
+  </si>
+  <si>
+    <t>6915230869</t>
+  </si>
+  <si>
+    <t>Nishita</t>
+  </si>
+  <si>
+    <t>ZahirKrish75137@example.net</t>
+  </si>
+  <si>
+    <t>1991-07-30</t>
+  </si>
+  <si>
+    <t>670454838873311</t>
+  </si>
+  <si>
+    <t>558b1652c8c2f684</t>
+  </si>
+  <si>
+    <t>516460737256878</t>
+  </si>
+  <si>
+    <t>IDEP6751192891139N6O</t>
+  </si>
+  <si>
+    <t>6545160988</t>
+  </si>
+  <si>
+    <t>Uma</t>
+  </si>
+  <si>
+    <t>SurajBal81090@example.net</t>
+  </si>
+  <si>
+    <t>1977-06-06</t>
+  </si>
+  <si>
+    <t>547036227149378</t>
+  </si>
+  <si>
+    <t>171c0f459b3caa2c</t>
+  </si>
+  <si>
+    <t>905120045273895</t>
+  </si>
+  <si>
+    <t>IDEP756124418278VXFZ</t>
+  </si>
+  <si>
+    <t>7988031200</t>
+  </si>
+  <si>
+    <t>JobinGara76697@example.net</t>
+  </si>
+  <si>
+    <t>1979-10-21</t>
+  </si>
+  <si>
+    <t>517257332708868</t>
+  </si>
+  <si>
+    <t>9d96d0087764ad8a</t>
+  </si>
+  <si>
+    <t>333862320320154</t>
+  </si>
+  <si>
+    <t>IDEP765129684672TPXL</t>
+  </si>
+  <si>
+    <t>9593113717</t>
+  </si>
+  <si>
+    <t>SatishBhat60764@example.net</t>
+  </si>
+  <si>
+    <t>1992-01-03</t>
+  </si>
+  <si>
+    <t>729936039085746</t>
+  </si>
+  <si>
+    <t>b895745127e483ed</t>
+  </si>
+  <si>
+    <t>282351264403128</t>
+  </si>
+  <si>
+    <t>IDEP765131569481KZ4L</t>
+  </si>
+  <si>
+    <t>8655899290</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>AbhinavLodi94667@example.net</t>
+  </si>
+  <si>
+    <t>1978-10-04</t>
+  </si>
+  <si>
+    <t>054836344660339</t>
+  </si>
+  <si>
+    <t>e1b45ec41877fb68</t>
+  </si>
+  <si>
+    <t>629002163838722</t>
+  </si>
+  <si>
+    <t>IDEP615733982721XCAY</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2644,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>584</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2434,7 +2764,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2883,16 +3213,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>589</v>
+        <v>699</v>
       </c>
       <c r="C2" t="s">
-        <v>590</v>
+        <v>700</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>588</v>
+        <v>698</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3111,13 +3441,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>585</v>
+        <v>695</v>
       </c>
       <c r="E2" t="s">
-        <v>586</v>
+        <v>696</v>
       </c>
       <c r="F2" t="s">
-        <v>587</v>
+        <v>697</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3664,10 +3994,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>584</v>
+        <v>694</v>
       </c>
       <c r="E2" t="s">
-        <v>586</v>
+        <v>696</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3679,7 +4009,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>588</v>
+        <v>698</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3688,10 +4018,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="M2" t="n">
-        <v>4225420.0</v>
+        <v>4233504.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3847,7 +4177,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>584</v>
+        <v>694</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3864,7 +4194,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>584</v>
+        <v>694</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3881,7 +4211,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>584</v>
+        <v>694</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3898,7 +4228,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>584</v>
+        <v>694</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3915,7 +4245,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>584</v>
+        <v>694</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4001,7 +4331,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>588</v>
+        <v>698</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4245,7 +4575,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>588</v>
+        <v>698</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4460,7 +4790,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>585</v>
+        <v>695</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4543,7 +4873,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4841,7 +5171,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4861,7 +5191,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4881,7 +5211,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4901,7 +5231,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4921,7 +5251,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4941,7 +5271,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4961,7 +5291,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_BC2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="791">
   <si>
     <t>TestCases</t>
   </si>
@@ -2149,6 +2149,273 @@
   </si>
   <si>
     <t>IDEP615733982721XCAY</t>
+  </si>
+  <si>
+    <t>6620175732</t>
+  </si>
+  <si>
+    <t>Heena</t>
+  </si>
+  <si>
+    <t>NeerendraLala31927@example.net</t>
+  </si>
+  <si>
+    <t>1978-01-20</t>
+  </si>
+  <si>
+    <t>332556814300646</t>
+  </si>
+  <si>
+    <t>ad4f81b9884aca31</t>
+  </si>
+  <si>
+    <t>808480029631916</t>
+  </si>
+  <si>
+    <t>8584396738</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>AjayDora93561@example.net</t>
+  </si>
+  <si>
+    <t>1987-11-07</t>
+  </si>
+  <si>
+    <t>958586004500419</t>
+  </si>
+  <si>
+    <t>be64e85516a2d421</t>
+  </si>
+  <si>
+    <t>577450355174020</t>
+  </si>
+  <si>
+    <t>7597516374</t>
+  </si>
+  <si>
+    <t>Hina</t>
+  </si>
+  <si>
+    <t>UjwalManne14155@example.net</t>
+  </si>
+  <si>
+    <t>1995-02-22</t>
+  </si>
+  <si>
+    <t>445724413205434</t>
+  </si>
+  <si>
+    <t>37b03ab2b249966d</t>
+  </si>
+  <si>
+    <t>363756426085583</t>
+  </si>
+  <si>
+    <t>IDEP567184237455DSP8</t>
+  </si>
+  <si>
+    <t>9796435754</t>
+  </si>
+  <si>
+    <t>Leelawati</t>
+  </si>
+  <si>
+    <t>UmeshPau37796@example.net</t>
+  </si>
+  <si>
+    <t>1971-07-03</t>
+  </si>
+  <si>
+    <t>296502713950101</t>
+  </si>
+  <si>
+    <t>eb3f0661e46cfda5</t>
+  </si>
+  <si>
+    <t>200404409983741</t>
+  </si>
+  <si>
+    <t>IDEP156789642353JUGQ</t>
+  </si>
+  <si>
+    <t>7384498072</t>
+  </si>
+  <si>
+    <t>NazirPardeshi57198@example.net</t>
+  </si>
+  <si>
+    <t>1973-04-01</t>
+  </si>
+  <si>
+    <t>596088784805603</t>
+  </si>
+  <si>
+    <t>2320e9d251420010</t>
+  </si>
+  <si>
+    <t>292372482323581</t>
+  </si>
+  <si>
+    <t>IDEP756116532881HBTY</t>
+  </si>
+  <si>
+    <t>6410594204</t>
+  </si>
+  <si>
+    <t>ArvindBains21081@example.net</t>
+  </si>
+  <si>
+    <t>1982-08-12</t>
+  </si>
+  <si>
+    <t>684458819155022</t>
+  </si>
+  <si>
+    <t>18a4cb135281b24d</t>
+  </si>
+  <si>
+    <t>310875154295521</t>
+  </si>
+  <si>
+    <t>IDEP156716862199XRZG</t>
+  </si>
+  <si>
+    <t>6684288310</t>
+  </si>
+  <si>
+    <t>Chhaya</t>
+  </si>
+  <si>
+    <t>RajendraGera85352@example.net</t>
+  </si>
+  <si>
+    <t>1993-01-02</t>
+  </si>
+  <si>
+    <t>931036695285179</t>
+  </si>
+  <si>
+    <t>66bcc319c6524141</t>
+  </si>
+  <si>
+    <t>778552317270510</t>
+  </si>
+  <si>
+    <t>IDEP715617139447ADKZ</t>
+  </si>
+  <si>
+    <t>7914893618</t>
+  </si>
+  <si>
+    <t>Shweta</t>
+  </si>
+  <si>
+    <t>PranayMurty35305@example.net</t>
+  </si>
+  <si>
+    <t>1975-05-07</t>
+  </si>
+  <si>
+    <t>402602769130185</t>
+  </si>
+  <si>
+    <t>9c9ea1b6575c92c8</t>
+  </si>
+  <si>
+    <t>221680169239219</t>
+  </si>
+  <si>
+    <t>IDEP5761181372551OGB</t>
+  </si>
+  <si>
+    <t>6160740633</t>
+  </si>
+  <si>
+    <t>MohanMeka30271@example.net</t>
+  </si>
+  <si>
+    <t>1993-04-20</t>
+  </si>
+  <si>
+    <t>268184587978213</t>
+  </si>
+  <si>
+    <t>9e60bdc48803619f</t>
+  </si>
+  <si>
+    <t>814768304621269</t>
+  </si>
+  <si>
+    <t>IDEP756119218999Z1UL</t>
+  </si>
+  <si>
+    <t>7585343198</t>
+  </si>
+  <si>
+    <t>ZeeshanMand85639@example.net</t>
+  </si>
+  <si>
+    <t>1977-04-19</t>
+  </si>
+  <si>
+    <t>304848058991642</t>
+  </si>
+  <si>
+    <t>f12dd2c36ef95721</t>
+  </si>
+  <si>
+    <t>691853043533187</t>
+  </si>
+  <si>
+    <t>IDEP75162877568981ZF</t>
+  </si>
+  <si>
+    <t>8661597866</t>
+  </si>
+  <si>
+    <t>Sapna</t>
+  </si>
+  <si>
+    <t>ZahirDin56883@example.net</t>
+  </si>
+  <si>
+    <t>1990-03-12</t>
+  </si>
+  <si>
+    <t>208980607027821</t>
+  </si>
+  <si>
+    <t>fcc083b31e2a3cce</t>
+  </si>
+  <si>
+    <t>783251700388707</t>
+  </si>
+  <si>
+    <t>IDEP61752179666249H1</t>
+  </si>
+  <si>
+    <t>8716005261</t>
+  </si>
+  <si>
+    <t>MalikJaggi93157@example.net</t>
+  </si>
+  <si>
+    <t>1973-08-04</t>
+  </si>
+  <si>
+    <t>330116858350288</t>
+  </si>
+  <si>
+    <t>8367e21dd6c9ce2a</t>
+  </si>
+  <si>
+    <t>903775242407018</t>
+  </si>
+  <si>
+    <t>IDEP567122883285HZPG</t>
   </si>
 </sst>
 </file>
@@ -2644,7 +2911,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2764,7 +3031,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -3213,16 +3480,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>699</v>
+        <v>788</v>
       </c>
       <c r="C2" t="s">
-        <v>700</v>
+        <v>789</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>698</v>
+        <v>787</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3441,13 +3708,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>695</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>696</v>
+        <v>785</v>
       </c>
       <c r="F2" t="s">
-        <v>697</v>
+        <v>786</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3994,10 +4261,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
       <c r="E2" t="s">
-        <v>696</v>
+        <v>785</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4009,7 +4276,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>698</v>
+        <v>787</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4018,10 +4285,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="M2" t="n">
-        <v>4233504.0</v>
+        <v>4234179.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4177,7 +4444,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4194,7 +4461,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4211,7 +4478,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4228,7 +4495,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4245,7 +4512,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4331,7 +4598,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>698</v>
+        <v>787</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4575,7 +4842,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>698</v>
+        <v>787</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4790,7 +5057,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>695</v>
+        <v>341</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4873,7 +5140,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -5171,7 +5438,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5191,7 +5458,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5211,7 +5478,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5231,7 +5498,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5251,7 +5518,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5271,7 +5538,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5291,7 +5558,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="C8">
         <v>725</v>
